--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I372"/>
+  <dimension ref="A1:I373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13418,6 +13418,41 @@
         <v>52500</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I373" t="n">
+        <v>125100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:I374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13453,6 +13453,41 @@
         <v>125100</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I374" t="n">
+        <v>151000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13488,6 +13488,41 @@
         <v>151000</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I375" t="n">
+        <v>70300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:I376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13523,6 +13523,41 @@
         <v>70300</v>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I376" t="n">
+        <v>59600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I376"/>
+  <dimension ref="A1:I377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13558,6 +13558,41 @@
         <v>59600</v>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I377" t="n">
+        <v>138000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I377"/>
+  <dimension ref="A1:I378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13593,6 +13593,41 @@
         <v>138000</v>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I378" t="n">
+        <v>214000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I378"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13628,6 +13628,41 @@
         <v>214000</v>
       </c>
     </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I379" t="n">
+        <v>257900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I379"/>
+  <dimension ref="A1:I380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13663,6 +13663,41 @@
         <v>257900</v>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I380" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I380"/>
+  <dimension ref="A1:I381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13698,6 +13698,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I381" t="n">
+        <v>151700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:I382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13733,6 +13733,41 @@
         <v>151700</v>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I382" t="n">
+        <v>287600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I382"/>
+  <dimension ref="A1:I383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13768,6 +13768,41 @@
         <v>287600</v>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I383" t="n">
+        <v>100900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I383"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13803,6 +13803,41 @@
         <v>100900</v>
       </c>
     </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I384" t="n">
+        <v>882900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13838,6 +13838,76 @@
         <v>882900</v>
       </c>
     </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I385" t="n">
+        <v>292900</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I386" t="n">
+        <v>942500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13908,6 +13908,76 @@
         <v>942500</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I387" t="n">
+        <v>269700</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I388" t="n">
+        <v>127000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I388"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13978,6 +13978,41 @@
         <v>127000</v>
       </c>
     </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I389" t="n">
+        <v>133300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14013,6 +14013,41 @@
         <v>133300</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I390" t="n">
+        <v>59100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14048,6 +14048,41 @@
         <v>59100</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I391" t="n">
+        <v>47400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14083,6 +14083,41 @@
         <v>47400</v>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I392" t="n">
+        <v>427800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I392"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14118,6 +14118,76 @@
         <v>427800</v>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I393" t="n">
+        <v>223400</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I394" t="n">
+        <v>650200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14188,6 +14188,41 @@
         <v>650200</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I395" t="n">
+        <v>499700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14223,6 +14223,41 @@
         <v>499700</v>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I396" t="n">
+        <v>378900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I396"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11705,11 +11705,11 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -11723,28 +11723,28 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.635</v>
       </c>
       <c r="F324" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.645</v>
       </c>
       <c r="G324" t="n">
-        <v>0.54</v>
+        <v>0.625</v>
       </c>
       <c r="H324" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="I324" t="n">
-        <v>613600</v>
+        <v>447000</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -11758,28 +11758,28 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0.535</v>
+        <v>0.64</v>
       </c>
       <c r="F325" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="G325" t="n">
-        <v>0.515</v>
+        <v>0.625</v>
       </c>
       <c r="H325" t="n">
-        <v>0.525</v>
+        <v>0.64</v>
       </c>
       <c r="I325" t="n">
-        <v>778500</v>
+        <v>245600</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -11793,28 +11793,28 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.525</v>
+        <v>0.63</v>
       </c>
       <c r="F326" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="G326" t="n">
-        <v>0.52</v>
+        <v>0.615</v>
       </c>
       <c r="H326" t="n">
-        <v>0.53</v>
+        <v>0.615</v>
       </c>
       <c r="I326" t="n">
-        <v>385600</v>
+        <v>728000</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -11828,28 +11828,28 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="F327" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="G327" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="H327" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="I327" t="n">
-        <v>218500</v>
+        <v>606500</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11863,28 +11863,28 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="F328" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="G328" t="n">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="H328" t="n">
-        <v>0.525</v>
+        <v>0.63</v>
       </c>
       <c r="I328" t="n">
-        <v>276700</v>
+        <v>423400</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -11898,28 +11898,28 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>0.525</v>
+        <v>0.635</v>
       </c>
       <c r="F329" t="n">
-        <v>0.535</v>
+        <v>0.635</v>
       </c>
       <c r="G329" t="n">
-        <v>0.52</v>
+        <v>0.615</v>
       </c>
       <c r="H329" t="n">
-        <v>0.535</v>
+        <v>0.62</v>
       </c>
       <c r="I329" t="n">
-        <v>434900</v>
+        <v>278600</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -11933,28 +11933,28 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="F330" t="n">
-        <v>0.555</v>
+        <v>0.625</v>
       </c>
       <c r="G330" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="H330" t="n">
-        <v>0.55</v>
+        <v>0.625</v>
       </c>
       <c r="I330" t="n">
-        <v>240100</v>
+        <v>221800</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -11968,28 +11968,28 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>0.55</v>
+        <v>0.615</v>
       </c>
       <c r="F331" t="n">
-        <v>0.555</v>
+        <v>0.625</v>
       </c>
       <c r="G331" t="n">
-        <v>0.545</v>
+        <v>0.605</v>
       </c>
       <c r="H331" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="I331" t="n">
-        <v>245900</v>
+        <v>369700</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -12003,28 +12003,28 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.54</v>
+        <v>0.575</v>
       </c>
       <c r="F332" t="n">
-        <v>0.545</v>
+        <v>0.58</v>
       </c>
       <c r="G332" t="n">
-        <v>0.535</v>
+        <v>0.555</v>
       </c>
       <c r="H332" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I332" t="n">
-        <v>62200</v>
+        <v>2956300</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -12038,28 +12038,28 @@
         </is>
       </c>
       <c r="E333" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G333" t="n">
         <v>0.54</v>
       </c>
-      <c r="F333" t="n">
+      <c r="H333" t="n">
         <v>0.54</v>
       </c>
-      <c r="G333" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0.53</v>
-      </c>
       <c r="I333" t="n">
-        <v>119100</v>
+        <v>613600</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -12073,28 +12073,28 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="F334" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="G334" t="n">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
       <c r="H334" t="n">
         <v>0.525</v>
       </c>
       <c r="I334" t="n">
-        <v>338900</v>
+        <v>778500</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -12111,25 +12111,25 @@
         <v>0.525</v>
       </c>
       <c r="F335" t="n">
-        <v>0.525</v>
+        <v>0.53</v>
       </c>
       <c r="G335" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H335" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="I335" t="n">
-        <v>313200</v>
+        <v>385600</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -12143,28 +12143,28 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="F336" t="n">
-        <v>0.525</v>
+        <v>0.53</v>
       </c>
       <c r="G336" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H336" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="I336" t="n">
-        <v>559900</v>
+        <v>218500</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -12178,28 +12178,28 @@
         </is>
       </c>
       <c r="E337" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H337" t="n">
         <v>0.525</v>
       </c>
-      <c r="F337" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0.535</v>
-      </c>
       <c r="I337" t="n">
-        <v>164000</v>
+        <v>276700</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -12213,7 +12213,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="F338" t="n">
         <v>0.535</v>
@@ -12222,19 +12222,19 @@
         <v>0.52</v>
       </c>
       <c r="H338" t="n">
-        <v>0.52</v>
+        <v>0.535</v>
       </c>
       <c r="I338" t="n">
-        <v>102000</v>
+        <v>434900</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -12248,28 +12248,28 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="F339" t="n">
-        <v>0.52</v>
+        <v>0.555</v>
       </c>
       <c r="G339" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="H339" t="n">
-        <v>0.515</v>
+        <v>0.55</v>
       </c>
       <c r="I339" t="n">
-        <v>337600</v>
+        <v>240100</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -12283,28 +12283,28 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>0.515</v>
+        <v>0.55</v>
       </c>
       <c r="F340" t="n">
-        <v>0.515</v>
+        <v>0.555</v>
       </c>
       <c r="G340" t="n">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="H340" t="n">
-        <v>0.515</v>
+        <v>0.55</v>
       </c>
       <c r="I340" t="n">
-        <v>32000</v>
+        <v>245900</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -12318,28 +12318,28 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="F341" t="n">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="G341" t="n">
-        <v>0.505</v>
+        <v>0.535</v>
       </c>
       <c r="H341" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="I341" t="n">
-        <v>174400</v>
+        <v>62200</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -12353,28 +12353,28 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>0.505</v>
+        <v>0.54</v>
       </c>
       <c r="F342" t="n">
-        <v>0.505</v>
+        <v>0.54</v>
       </c>
       <c r="G342" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H342" t="n">
-        <v>0.505</v>
+        <v>0.53</v>
       </c>
       <c r="I342" t="n">
-        <v>588800</v>
+        <v>119100</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -12388,28 +12388,28 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="F343" t="n">
         <v>0.525</v>
       </c>
       <c r="G343" t="n">
-        <v>0.505</v>
+        <v>0.525</v>
       </c>
       <c r="H343" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="I343" t="n">
-        <v>156000</v>
+        <v>338900</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -12423,28 +12423,28 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="F344" t="n">
         <v>0.525</v>
       </c>
       <c r="G344" t="n">
-        <v>0.515</v>
+        <v>0.51</v>
       </c>
       <c r="H344" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="I344" t="n">
-        <v>132000</v>
+        <v>313200</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -12458,28 +12458,28 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>0.515</v>
+        <v>0.51</v>
       </c>
       <c r="F345" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="G345" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H345" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="I345" t="n">
-        <v>269600</v>
+        <v>559900</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12493,28 +12493,28 @@
         </is>
       </c>
       <c r="E346" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G346" t="n">
         <v>0.515</v>
       </c>
-      <c r="F346" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.505</v>
-      </c>
       <c r="H346" t="n">
-        <v>0.515</v>
+        <v>0.535</v>
       </c>
       <c r="I346" t="n">
-        <v>187000</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12528,28 +12528,28 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="F347" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G347" t="n">
         <v>0.52</v>
       </c>
-      <c r="G347" t="n">
-        <v>0.505</v>
-      </c>
       <c r="H347" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="I347" t="n">
-        <v>63000</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12563,28 +12563,28 @@
         </is>
       </c>
       <c r="E348" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H348" t="n">
         <v>0.515</v>
       </c>
-      <c r="F348" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0.505</v>
-      </c>
       <c r="I348" t="n">
-        <v>81800</v>
+        <v>337600</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12598,28 +12598,28 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>0.505</v>
+        <v>0.515</v>
       </c>
       <c r="F349" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="G349" t="n">
-        <v>0.505</v>
+        <v>0.51</v>
       </c>
       <c r="H349" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="I349" t="n">
-        <v>795800</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12633,28 +12633,28 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="F350" t="n">
-        <v>0.545</v>
+        <v>0.51</v>
       </c>
       <c r="G350" t="n">
-        <v>0.515</v>
+        <v>0.505</v>
       </c>
       <c r="H350" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="I350" t="n">
-        <v>418400</v>
+        <v>174400</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12668,28 +12668,28 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>0.53</v>
+        <v>0.505</v>
       </c>
       <c r="F351" t="n">
-        <v>0.535</v>
+        <v>0.505</v>
       </c>
       <c r="G351" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H351" t="n">
-        <v>0.53</v>
+        <v>0.505</v>
       </c>
       <c r="I351" t="n">
-        <v>134900</v>
+        <v>588800</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12703,28 +12703,28 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>0.535</v>
+        <v>0.505</v>
       </c>
       <c r="F352" t="n">
-        <v>0.535</v>
+        <v>0.525</v>
       </c>
       <c r="G352" t="n">
-        <v>0.515</v>
+        <v>0.505</v>
       </c>
       <c r="H352" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="I352" t="n">
-        <v>236200</v>
+        <v>156000</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12738,28 +12738,28 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.535</v>
+        <v>0.52</v>
       </c>
       <c r="F353" t="n">
-        <v>0.545</v>
+        <v>0.525</v>
       </c>
       <c r="G353" t="n">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
       <c r="H353" t="n">
-        <v>0.535</v>
+        <v>0.52</v>
       </c>
       <c r="I353" t="n">
-        <v>245300</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12773,28 +12773,28 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>0.53</v>
+        <v>0.515</v>
       </c>
       <c r="F354" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="G354" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="H354" t="n">
-        <v>0.535</v>
+        <v>0.52</v>
       </c>
       <c r="I354" t="n">
-        <v>79300</v>
+        <v>269600</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12808,28 +12808,28 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>0.535</v>
+        <v>0.515</v>
       </c>
       <c r="F355" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="G355" t="n">
-        <v>0.525</v>
+        <v>0.505</v>
       </c>
       <c r="H355" t="n">
-        <v>0.53</v>
+        <v>0.515</v>
       </c>
       <c r="I355" t="n">
-        <v>68900</v>
+        <v>187000</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12843,28 +12843,28 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
       <c r="F356" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="G356" t="n">
-        <v>0.52</v>
+        <v>0.505</v>
       </c>
       <c r="H356" t="n">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
       <c r="I356" t="n">
-        <v>176100</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12878,28 +12878,28 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
       <c r="F357" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="G357" t="n">
-        <v>0.525</v>
+        <v>0.505</v>
       </c>
       <c r="H357" t="n">
-        <v>0.53</v>
+        <v>0.505</v>
       </c>
       <c r="I357" t="n">
-        <v>162700</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12913,28 +12913,28 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.535</v>
+        <v>0.505</v>
       </c>
       <c r="F358" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="G358" t="n">
-        <v>0.52</v>
+        <v>0.505</v>
       </c>
       <c r="H358" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I358" t="n">
-        <v>344200</v>
+        <v>795800</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12948,28 +12948,28 @@
         </is>
       </c>
       <c r="E359" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H359" t="n">
         <v>0.53</v>
       </c>
-      <c r="F359" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0.52</v>
-      </c>
       <c r="I359" t="n">
-        <v>295500</v>
+        <v>418400</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12983,28 +12983,28 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F360" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="G360" t="n">
         <v>0.52</v>
       </c>
       <c r="H360" t="n">
-        <v>0.545</v>
+        <v>0.53</v>
       </c>
       <c r="I360" t="n">
-        <v>73700</v>
+        <v>134900</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -13018,28 +13018,28 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="F361" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="G361" t="n">
-        <v>0.53</v>
+        <v>0.515</v>
       </c>
       <c r="H361" t="n">
-        <v>0.54</v>
+        <v>0.525</v>
       </c>
       <c r="I361" t="n">
-        <v>45800</v>
+        <v>236200</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -13053,7 +13053,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>0.53</v>
+        <v>0.535</v>
       </c>
       <c r="F362" t="n">
         <v>0.545</v>
@@ -13062,19 +13062,19 @@
         <v>0.525</v>
       </c>
       <c r="H362" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="I362" t="n">
-        <v>10000</v>
+        <v>245300</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13088,28 +13088,28 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="F363" t="n">
-        <v>0.605</v>
+        <v>0.54</v>
       </c>
       <c r="G363" t="n">
-        <v>0.545</v>
+        <v>0.53</v>
       </c>
       <c r="H363" t="n">
-        <v>0.59</v>
+        <v>0.535</v>
       </c>
       <c r="I363" t="n">
-        <v>2470800</v>
+        <v>79300</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -13123,28 +13123,28 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>0.595</v>
+        <v>0.535</v>
       </c>
       <c r="F364" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="G364" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.525</v>
       </c>
       <c r="H364" t="n">
-        <v>0.575</v>
+        <v>0.53</v>
       </c>
       <c r="I364" t="n">
-        <v>594900</v>
+        <v>68900</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13158,28 +13158,28 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.575</v>
+        <v>0.525</v>
       </c>
       <c r="F365" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="G365" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="H365" t="n">
-        <v>0.57</v>
+        <v>0.525</v>
       </c>
       <c r="I365" t="n">
-        <v>247200</v>
+        <v>176100</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -13193,28 +13193,28 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>0.57</v>
+        <v>0.525</v>
       </c>
       <c r="F366" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="G366" t="n">
-        <v>0.53</v>
+        <v>0.525</v>
       </c>
       <c r="H366" t="n">
         <v>0.53</v>
       </c>
       <c r="I366" t="n">
-        <v>513900</v>
+        <v>162700</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -13228,28 +13228,28 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>0.515</v>
+        <v>0.535</v>
       </c>
       <c r="F367" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="G367" t="n">
-        <v>0.515</v>
+        <v>0.52</v>
       </c>
       <c r="H367" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="I367" t="n">
-        <v>229700</v>
+        <v>344200</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -13263,28 +13263,28 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F368" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="G368" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="H368" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="I368" t="n">
-        <v>68600</v>
+        <v>295500</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13298,28 +13298,28 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F369" t="n">
         <v>0.545</v>
       </c>
       <c r="G369" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="H369" t="n">
-        <v>0.54</v>
+        <v>0.545</v>
       </c>
       <c r="I369" t="n">
-        <v>77200</v>
+        <v>73700</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -13333,28 +13333,28 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="F370" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="G370" t="n">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="H370" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="I370" t="n">
-        <v>64700</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -13368,28 +13368,28 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="F371" t="n">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
       <c r="G371" t="n">
         <v>0.525</v>
       </c>
       <c r="H371" t="n">
-        <v>0.55</v>
+        <v>0.545</v>
       </c>
       <c r="I371" t="n">
-        <v>235300</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13406,25 +13406,25 @@
         <v>0.55</v>
       </c>
       <c r="F372" t="n">
-        <v>0.55</v>
+        <v>0.605</v>
       </c>
       <c r="G372" t="n">
-        <v>0.53</v>
+        <v>0.545</v>
       </c>
       <c r="H372" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="I372" t="n">
-        <v>52500</v>
+        <v>2470800</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13438,28 +13438,28 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>0.53</v>
+        <v>0.595</v>
       </c>
       <c r="F373" t="n">
-        <v>0.535</v>
+        <v>0.6</v>
       </c>
       <c r="G373" t="n">
-        <v>0.53</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H373" t="n">
-        <v>0.53</v>
+        <v>0.575</v>
       </c>
       <c r="I373" t="n">
-        <v>125100</v>
+        <v>594900</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13473,28 +13473,28 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>0.53</v>
+        <v>0.575</v>
       </c>
       <c r="F374" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="G374" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="H374" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I374" t="n">
-        <v>151000</v>
+        <v>247200</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13508,28 +13508,28 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="F375" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="G375" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H375" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="I375" t="n">
-        <v>70300</v>
+        <v>513900</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13543,28 +13543,28 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>0.55</v>
+        <v>0.515</v>
       </c>
       <c r="F376" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="G376" t="n">
-        <v>0.535</v>
+        <v>0.515</v>
       </c>
       <c r="H376" t="n">
-        <v>0.545</v>
+        <v>0.54</v>
       </c>
       <c r="I376" t="n">
-        <v>59600</v>
+        <v>229700</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13578,28 +13578,28 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>0.545</v>
+        <v>0.54</v>
       </c>
       <c r="F377" t="n">
         <v>0.55</v>
       </c>
       <c r="G377" t="n">
-        <v>0.54</v>
+        <v>0.525</v>
       </c>
       <c r="H377" t="n">
-        <v>0.545</v>
+        <v>0.55</v>
       </c>
       <c r="I377" t="n">
-        <v>138000</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13613,28 +13613,28 @@
         </is>
       </c>
       <c r="E378" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F378" t="n">
         <v>0.545</v>
       </c>
-      <c r="F378" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="G378" t="n">
-        <v>0.545</v>
+        <v>0.53</v>
       </c>
       <c r="H378" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I378" t="n">
-        <v>214000</v>
+        <v>77200</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13648,28 +13648,28 @@
         </is>
       </c>
       <c r="E379" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F379" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="F379" t="n">
-        <v>0.58</v>
-      </c>
       <c r="G379" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.535</v>
       </c>
       <c r="H379" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="I379" t="n">
-        <v>257900</v>
+        <v>64700</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13683,28 +13683,28 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="F380" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="G380" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.525</v>
       </c>
       <c r="H380" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I380" t="n">
-        <v>80000</v>
+        <v>235300</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13718,28 +13718,28 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>0.555</v>
+        <v>0.55</v>
       </c>
       <c r="F381" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="G381" t="n">
-        <v>0.545</v>
+        <v>0.53</v>
       </c>
       <c r="H381" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="I381" t="n">
-        <v>151700</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13753,28 +13753,28 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>0.545</v>
+        <v>0.53</v>
       </c>
       <c r="F382" t="n">
-        <v>0.55</v>
+        <v>0.535</v>
       </c>
       <c r="G382" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H382" t="n">
-        <v>0.545</v>
+        <v>0.53</v>
       </c>
       <c r="I382" t="n">
-        <v>287600</v>
+        <v>125100</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13788,28 +13788,28 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F383" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G383" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H383" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I383" t="n">
-        <v>100900</v>
+        <v>151000</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13823,28 +13823,28 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>0.555</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F384" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G384" t="n">
-        <v>0.555</v>
+        <v>0.54</v>
       </c>
       <c r="H384" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="I384" t="n">
-        <v>882900</v>
+        <v>70300</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13858,28 +13858,28 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F385" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="G385" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="H385" t="n">
         <v>0.545</v>
       </c>
       <c r="I385" t="n">
-        <v>292900</v>
+        <v>59600</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13896,25 +13896,25 @@
         <v>0.545</v>
       </c>
       <c r="F386" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H386" t="n">
         <v>0.545</v>
       </c>
-      <c r="G386" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0.51</v>
-      </c>
       <c r="I386" t="n">
-        <v>942500</v>
+        <v>138000</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13928,28 +13928,28 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>0.51</v>
+        <v>0.545</v>
       </c>
       <c r="F387" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G387" t="n">
-        <v>0.505</v>
+        <v>0.545</v>
       </c>
       <c r="H387" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I387" t="n">
-        <v>269700</v>
+        <v>214000</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13963,28 +13963,28 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>0.515</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F388" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="G388" t="n">
-        <v>0.515</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H388" t="n">
-        <v>0.525</v>
+        <v>0.58</v>
       </c>
       <c r="I388" t="n">
-        <v>127000</v>
+        <v>257900</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13998,28 +13998,28 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="F389" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="G389" t="n">
-        <v>0.515</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H389" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I389" t="n">
-        <v>133300</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14033,28 +14033,28 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.535</v>
+        <v>0.555</v>
       </c>
       <c r="F390" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="G390" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="H390" t="n">
-        <v>0.535</v>
+        <v>0.57</v>
       </c>
       <c r="I390" t="n">
-        <v>59100</v>
+        <v>151700</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14068,28 +14068,28 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>0.535</v>
+        <v>0.545</v>
       </c>
       <c r="F391" t="n">
-        <v>0.535</v>
+        <v>0.55</v>
       </c>
       <c r="G391" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="H391" t="n">
-        <v>0.525</v>
+        <v>0.545</v>
       </c>
       <c r="I391" t="n">
-        <v>47400</v>
+        <v>287600</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14103,28 +14103,28 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="F392" t="n">
-        <v>0.525</v>
+        <v>0.55</v>
       </c>
       <c r="G392" t="n">
-        <v>0.475</v>
+        <v>0.54</v>
       </c>
       <c r="H392" t="n">
-        <v>0.475</v>
+        <v>0.54</v>
       </c>
       <c r="I392" t="n">
-        <v>427800</v>
+        <v>100900</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14138,28 +14138,28 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>0.465</v>
+        <v>0.555</v>
       </c>
       <c r="F393" t="n">
-        <v>0.475</v>
+        <v>0.57</v>
       </c>
       <c r="G393" t="n">
-        <v>0.455</v>
+        <v>0.555</v>
       </c>
       <c r="H393" t="n">
-        <v>0.475</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I393" t="n">
-        <v>223400</v>
+        <v>882900</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14173,28 +14173,28 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>0.475</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F394" t="n">
-        <v>0.505</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G394" t="n">
-        <v>0.475</v>
+        <v>0.54</v>
       </c>
       <c r="H394" t="n">
-        <v>0.49</v>
+        <v>0.545</v>
       </c>
       <c r="I394" t="n">
-        <v>650200</v>
+        <v>292900</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -14208,53 +14208,368 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>0.48</v>
+        <v>0.545</v>
       </c>
       <c r="F395" t="n">
-        <v>0.48</v>
+        <v>0.545</v>
       </c>
       <c r="G395" t="n">
-        <v>0.465</v>
+        <v>0.505</v>
       </c>
       <c r="H395" t="n">
-        <v>0.465</v>
+        <v>0.51</v>
       </c>
       <c r="I395" t="n">
-        <v>499700</v>
+        <v>942500</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I396" t="n">
+        <v>269700</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I397" t="n">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I398" t="n">
+        <v>133300</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I399" t="n">
+        <v>59100</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I400" t="n">
+        <v>47400</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I401" t="n">
+        <v>427800</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I402" t="n">
+        <v>223400</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I403" t="n">
+        <v>650200</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I404" t="n">
+        <v>499700</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B396" t="inlineStr">
+      <c r="B405" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>0201</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>NOVA</t>
-        </is>
-      </c>
-      <c r="E396" t="n">
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
         <v>0.45</v>
       </c>
-      <c r="F396" t="n">
+      <c r="F405" t="n">
         <v>0.45</v>
       </c>
-      <c r="G396" t="n">
+      <c r="G405" t="n">
         <v>0.405</v>
       </c>
-      <c r="H396" t="n">
+      <c r="H405" t="n">
         <v>0.44</v>
       </c>
-      <c r="I396" t="n">
+      <c r="I405" t="n">
         <v>378900</v>
       </c>
     </row>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14573,6 +14573,41 @@
         <v>378900</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I406" t="n">
+        <v>1151000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I406"/>
+  <dimension ref="A1:I407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14608,6 +14608,41 @@
         <v>1151000</v>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I407" t="n">
+        <v>466000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14643,6 +14643,41 @@
         <v>466000</v>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I408" t="n">
+        <v>413200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I408"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14678,6 +14678,41 @@
         <v>413200</v>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I409" t="n">
+        <v>801300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14713,6 +14713,41 @@
         <v>801300</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I410" t="n">
+        <v>553100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14748,6 +14748,41 @@
         <v>553100</v>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I411" t="n">
+        <v>69500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14783,6 +14783,41 @@
         <v>69500</v>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I412" t="n">
+        <v>291300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14818,6 +14818,41 @@
         <v>291300</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I413" t="n">
+        <v>304100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14853,6 +14853,41 @@
         <v>304100</v>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I414" t="n">
+        <v>236700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I414"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14888,6 +14888,41 @@
         <v>236700</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I415" t="n">
+        <v>207100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I415"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14923,6 +14923,41 @@
         <v>207100</v>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I416" t="n">
+        <v>390200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14958,6 +14958,41 @@
         <v>390200</v>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I417" t="n">
+        <v>467600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14993,6 +14993,41 @@
         <v>467600</v>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I418" t="n">
+        <v>412000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15028,6 +15028,41 @@
         <v>412000</v>
       </c>
     </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I419" t="n">
+        <v>287600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I419"/>
+  <dimension ref="A1:I420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15063,6 +15063,41 @@
         <v>287600</v>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I420" t="n">
+        <v>274100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15098,6 +15098,41 @@
         <v>274100</v>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I421" t="n">
+        <v>531900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15133,6 +15133,41 @@
         <v>531900</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I422" t="n">
+        <v>535600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I422"/>
+  <dimension ref="A1:I423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15168,6 +15168,41 @@
         <v>535600</v>
       </c>
     </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I423" t="n">
+        <v>219200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I423"/>
+  <dimension ref="A1:I424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15203,6 +15203,41 @@
         <v>219200</v>
       </c>
     </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I424" t="n">
+        <v>283500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I424"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15238,6 +15238,41 @@
         <v>283500</v>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I425" t="n">
+        <v>59400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15273,6 +15273,41 @@
         <v>59400</v>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I426" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I426"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15308,6 +15308,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I427" t="n">
+        <v>2431000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15343,6 +15343,41 @@
         <v>2431000</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2463600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15378,6 +15378,41 @@
         <v>2463600</v>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I429" t="n">
+        <v>683600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15413,6 +15413,41 @@
         <v>683600</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I430" t="n">
+        <v>514200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15448,6 +15448,76 @@
         <v>514200</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I431" t="n">
+        <v>499700</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I432" t="n">
+        <v>243600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15518,6 +15518,41 @@
         <v>243600</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I433" t="n">
+        <v>282700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15553,6 +15553,111 @@
         <v>282700</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I434" t="n">
+        <v>194000</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I435" t="n">
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I436" t="n">
+        <v>4006700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15658,6 +15658,41 @@
         <v>4006700</v>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I437" t="n">
+        <v>3232800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15693,6 +15693,41 @@
         <v>3232800</v>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I438" t="n">
+        <v>1689200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0201.xlsx
+++ b/data/0201.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15728,6 +15728,111 @@
         <v>1689200</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I439" t="n">
+        <v>965700</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I440" t="n">
+        <v>927700</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>NOVA</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I441" t="n">
+        <v>304700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
